--- a/data/population_models/models_summary_kriegberg_weight95.xlsx
+++ b/data/population_models/models_summary_kriegberg_weight95.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,50 +365,55 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Phi</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>p</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pent</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>npar</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>AICc</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>DeltaAICc</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>weight</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Deviance</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>ind_per_ha</t>
         </is>
@@ -420,44 +425,47 @@
           <t>Phi(~Time + I(Time^2))p(~sundur + wind)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2">
+        <v>39</v>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>0.94 [0.832-0.956]</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>0.08 [0.043-0.126]</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>0.06 [0.028-0.105]</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>661 [468-971]</t>
         </is>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>9</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>271.7338443113773</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.3839741921345565</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>-531.43906</v>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>70 [48-104]</t>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>60 [43-88]</t>
         </is>
       </c>
     </row>
@@ -467,44 +475,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp + wind + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3">
+        <v>51</v>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>0.92 [0.841-0.96]</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>0.07 [0.039-0.131]</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>0.05 [0.02-0.118]</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>643 [454-951]</t>
         </is>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>10</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>273.2132712048193</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1.479426893441996</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.1832519341880248</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-532.20709</v>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>61 [42-94]</t>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>58 [41-86]</t>
         </is>
       </c>
     </row>
@@ -514,44 +525,47 @@
           <t>Phi(~Time + I(Time^2))p(~Time)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4">
+        <v>84</v>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>0.78 [0.668-0.861]</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>0.12 [0.063-0.221]</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>0.03 [0.015-0.069]</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>712 [477-1117]</t>
         </is>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>9</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>274.4731243113773</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>2.739280000000008</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.09760564621860626</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-528.69978</v>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>58 [40-89]</t>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>65 [43-102]</t>
         </is>
       </c>
     </row>
@@ -561,44 +575,47 @@
           <t>Phi(~Time + I(Time^2))p(~sundur + wind)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>0.92 [0.838-0.958]</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>0.07 [0.04-0.122]</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>0.03 [0.014-0.06]</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>634 [450-934]</t>
         </is>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>8</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>274.6359228571428</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>2.902078545765562</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.0899753792902651</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-526.31628</v>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>68 [47-102]</t>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>58 [41-85]</t>
         </is>
       </c>
     </row>
@@ -608,44 +625,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp + wind + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6">
+        <v>81</v>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>0.95 [0.93-0.957]</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>0.06 [0.037-0.104]</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>0.04 [0.036-0.036]</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>777 [522-1208]</t>
         </is>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>11</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>275.3672800000001</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>3.633435688622797</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.06241823735850541</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>-532.32778</v>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>62 [43-94]</t>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>71 [47-110]</t>
         </is>
       </c>
     </row>
@@ -655,44 +675,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp + wind + sundur)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7">
+        <v>21</v>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>0.94 [0.4-0]</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>0.05 [1-0]</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>0 [0-0]</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>616 [616-616]</t>
         </is>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>9</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>275.4928543113772</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>3.759009999999989</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.05861967214297935</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-527.6800500000001</v>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>57 [40-87]</t>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>56 [56-56]</t>
         </is>
       </c>
     </row>
@@ -702,44 +725,47 @@
           <t>Phi(~Time + I(Time^2))p(~sundur + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8">
+        <v>69</v>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>0.95 [0.939-0.958]</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>0.07 [0.039-0.106]</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>0.05 [0.011-0.433]</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>726 [495-1113]</t>
         </is>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>10</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>275.8077012048192</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>4.073856893441985</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.0500812604710393</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>-529.61265</v>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>69 [48-103]</t>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>66 [45-101]</t>
         </is>
       </c>
     </row>
@@ -749,44 +775,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9">
+        <v>75</v>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>0.85 [0.728-0.915]</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>0.07 [0.041-0.108]</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>0.04 [0.027-0.089]</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>670 [471-992]</t>
         </is>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>10</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>278.0846112048193</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>6.350766893442028</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.01604170503333236</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>-527.33574</v>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>62 [43-93]</t>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>61 [43-90]</t>
         </is>
       </c>
     </row>
